--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/53_Konya_2025.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2025/53_Konya_2025.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93EE96F3-86D6-4B86-A6E4-B936950959C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{939AA6ED-09F3-42F6-B61D-ABF887310455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{C47F3FFF-C2E0-4D73-9324-AA6E324CFA2E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="659" xr2:uid="{305BE72B-792A-4C05-AD4B-E3B169356853}"/>
   </bookViews>
   <sheets>
     <sheet name="HAZİRAN" sheetId="140" r:id="rId1"/>
@@ -802,13 +802,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{BD6D1564-C1B9-45C8-A7F7-056585700B98}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{8DDEDF21-1D9B-46A2-B59C-9778FF17DBFD}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{8F141017-BDEF-45A7-9469-1AD35B1B65C8}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{8157CA7E-297A-4610-AD12-80B9D8A83688}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{8B9982E2-1146-4366-8EC1-4A087925AAD0}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{4C758666-EDD5-4A03-9D86-485A5CF0CA1E}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{0A38D008-E63E-4724-AE08-B588C8E12A34}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{15B1C6F5-41D3-4CCF-8E24-D18B93937626}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{BF2E1496-F6FF-49F2-9FB3-46C0CAAB8524}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{FA6677D2-8A7D-4989-A12A-686CF91E5A16}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{D05E8081-55A8-4BE9-821B-9FD31712FFB7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{BCDFF464-898C-421D-9847-18F602539548}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{656316CE-EBBD-4948-AED7-EB886189FDC2}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{B58AB6C3-934E-488B-8E19-873F21D836A5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1178,7 +1178,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14773705-432F-4016-8200-B0AFF63D4AC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16840971-0593-49BC-97E2-ED4E8EFE5DF0}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -2474,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04F2C1BD-FF2E-4757-B2E0-A767ED0EC33B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C262F6E7-B6C9-4240-95EA-39EE31D84D03}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -3768,7 +3768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{671A58E4-A9A9-4310-9005-633A4D959034}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660F1AFC-AA45-4CC8-A7FE-22BA68102FB7}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -5066,7 +5066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D62E5C-741D-4533-9055-ABD04BB19BB0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5FA82FB-9751-494F-9DB4-27F7202D4B98}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -6362,7 +6362,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D248340-4E44-4398-A74B-45A097060462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2308DA26-18CC-47BA-B34E-EA6BBEEC3A74}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
@@ -7654,7 +7654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C088D7-4528-4231-ADDF-EDF1155B2F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD3ADA9-8E18-4A69-9DD4-1AA19E738063}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F104"/>
   <sheetViews>
